--- a/2021年_テトリス/02_基本設計書/【基本設計】画面設計書(処理設計)_ログイン後メニュー画面.xlsx
+++ b/2021年_テトリス/02_基本設計書/【基本設計】画面設計書(処理設計)_ログイン後メニュー画面.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\growthTeamDocument\2021年_テトリス\02_基本設計書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/iwasuji/document/2021年_テトリス/02_基本設計書/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA0A51B-D5DC-42F4-92F9-BF07CFFCB8C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9A19358-4857-6049-9846-BFD8BD44A623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="990" yWindow="-120" windowWidth="24330" windowHeight="15990" activeTab="2" xr2:uid="{3C8D862C-6145-E842-B259-880AA5F992AF}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15820" xr2:uid="{3C8D862C-6145-E842-B259-880AA5F992AF}"/>
   </bookViews>
   <sheets>
     <sheet name="ヘッダー" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">トップ画面及びメニュー画面!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">トップ画面及びメニュー画面!$A$1:$AX$63</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">トップ画面及びメニュー画面!$A$1:$AX$68</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">ヘッダー!$A$1:$AZ$6</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">改訂履歴!$A$1:$BA$67</definedName>
   </definedNames>
@@ -31,9 +31,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -43,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="51">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -257,10 +255,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>シングルプレイ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ボタン</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -277,16 +271,6 @@
   </si>
   <si>
     <t>アクション</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>シングルプレイ画面へ遷移</t>
-    <rPh sb="7" eb="9">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>センイ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -357,29 +341,126 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・シングルプレイ、マイページ画面への遷移するボタンを表示</t>
-    <rPh sb="14" eb="16">
+    <t>遊ぶ</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">アソブ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>成績</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">セイセキ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザ情報編集</t>
+    <rPh sb="3" eb="5">
+      <t xml:space="preserve">ジョウホウ </t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t xml:space="preserve">ヘンシュウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログアウト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>成績画面へ遷移</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">セイセキ </t>
+    </rPh>
+    <rPh sb="2" eb="4">
       <t>ガメン</t>
     </rPh>
-    <rPh sb="18" eb="20">
+    <rPh sb="5" eb="7">
       <t>センイ</t>
     </rPh>
-    <rPh sb="26" eb="28">
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザ情報編集画面へ遷移</t>
+    <rPh sb="3" eb="5">
+      <t xml:space="preserve">ジョウホウ </t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t xml:space="preserve">ヘンシュウ </t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一人用モードシングルプレイ画面へ遷移</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ヒトリ </t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t xml:space="preserve">ヨウ </t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・一人用モードへの遷移するボタンを表示</t>
+    <rPh sb="1" eb="4">
+      <t xml:space="preserve">ヒトリヨウ </t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
       <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>マイページ</t>
+    <t>ログアウト確認ダイアログを表示　※「はい」ボタン押下でログイン前トップメニューへ、「いいえ」ボタン押下でダイアログを閉じる</t>
+    <rPh sb="5" eb="7">
+      <t xml:space="preserve">カクニン </t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t xml:space="preserve">ヒョウジ </t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t xml:space="preserve">オウカ </t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t xml:space="preserve">マエ </t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t xml:space="preserve">オウカ </t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t xml:space="preserve">トジル </t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>マイページ画面へ遷移</t>
-    <rPh sb="5" eb="7">
-      <t>ガメン</t>
+    <t>・ログアウトボタン押下でログイン前のトップメニュー画面に遷移する</t>
+    <rPh sb="9" eb="11">
+      <t xml:space="preserve">オウカ </t>
     </rPh>
-    <rPh sb="8" eb="10">
-      <t>センイ</t>
+    <rPh sb="16" eb="17">
+      <t xml:space="preserve">マエ </t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t xml:space="preserve">ガメン </t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t xml:space="preserve">センイ </t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1002,7 +1083,7 @@
               <a:picLocks noChangeAspect="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="ヘッダー!A1:AY3" spid="_x0000_s3406"/>
+                  <a14:cameraTool cellRange="ヘッダー!A1:AY3" spid="_x0000_s3424"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1061,7 +1142,7 @@
               <a:picLocks noChangeAspect="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="ヘッダー!A1:AY3" spid="_x0000_s2377"/>
+                  <a14:cameraTool cellRange="ヘッダー!A1:AY3" spid="_x0000_s2395"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1091,14 +1172,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>26458</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>37830</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>167356</xdr:rowOff>
+      <xdr:colOff>39815</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>171181</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1120,14 +1201,294 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="2451805"/>
-          <a:ext cx="3124636" cy="5997009"/>
+          <a:off x="0" y="2966273"/>
+          <a:ext cx="3661667" cy="7059168"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>176389</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>70556</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>176388</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>176389</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33F21D20-0FCE-C673-0769-0215485A7F29}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="693796" y="4409723"/>
+          <a:ext cx="2328333" cy="705555"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400" baseline="0">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>遊ぶ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400" baseline="0">
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>176388</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>117593</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>188147</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>23518</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C694C58B-BAA6-384E-9A3B-9B0C4B946C29}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="693795" y="5256389"/>
+          <a:ext cx="2340093" cy="705555"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400" baseline="0">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>成績</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400" baseline="0">
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>176389</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>35280</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>199907</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>23520</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11A8F6A2-55AA-8445-856A-CD1A21DE285F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="693796" y="6173613"/>
+          <a:ext cx="2351852" cy="705555"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400" baseline="0">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>ユーザ情報編集</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400" baseline="0">
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>176389</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>199905</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>199907</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>105830</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55500D92-EB16-0345-BBEE-E7314ACE5FC1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="693796" y="7055553"/>
+          <a:ext cx="2351852" cy="705555"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400" baseline="0">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>ログアウト</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400" baseline="0">
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1435,11 +1796,11 @@
   </sheetPr>
   <dimension ref="A1:BB4"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection sqref="A1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.28515625" defaultRowHeight="12"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3.33203125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:54" ht="15" customHeight="1">
       <c r="A1" s="53" t="s">
@@ -1523,7 +1884,7 @@
       <c r="I2" s="66"/>
       <c r="J2" s="67"/>
       <c r="K2" s="65" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L2" s="66"/>
       <c r="M2" s="66"/>
@@ -1665,21 +2026,21 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.28515625" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3.33203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="6" width="3.28515625" style="3"/>
-    <col min="7" max="7" width="3.28515625" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="3.28515625" style="3"/>
+    <col min="1" max="6" width="3.33203125" style="3"/>
+    <col min="7" max="7" width="3.33203125" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="3.33203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" customFormat="1" ht="12">
+    <row r="1" spans="1:52" customFormat="1" ht="15">
       <c r="A1" s="12"/>
     </row>
-    <row r="2" spans="1:52" customFormat="1" ht="12"/>
-    <row r="3" spans="1:52" customFormat="1" ht="12"/>
-    <row r="4" spans="1:52" customFormat="1" ht="12"/>
-    <row r="5" spans="1:52" customFormat="1" ht="12"/>
-    <row r="7" spans="1:52" ht="14.25">
+    <row r="2" spans="1:52" customFormat="1" ht="15"/>
+    <row r="3" spans="1:52" customFormat="1" ht="15"/>
+    <row r="4" spans="1:52" customFormat="1" ht="15"/>
+    <row r="5" spans="1:52" customFormat="1" ht="15"/>
+    <row r="7" spans="1:52" ht="18">
       <c r="A7" s="7" t="s">
         <v>0</v>
       </c>
@@ -3294,141 +3655,141 @@
     </row>
   </sheetData>
   <mergeCells count="135">
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="G34:K34"/>
+    <mergeCell ref="L34:P34"/>
+    <mergeCell ref="Q34:AL34"/>
+    <mergeCell ref="AM34:AZ34"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="G32:K32"/>
+    <mergeCell ref="L32:P32"/>
+    <mergeCell ref="Q32:AL32"/>
+    <mergeCell ref="AM32:AZ32"/>
     <mergeCell ref="C33:F33"/>
     <mergeCell ref="G33:K33"/>
     <mergeCell ref="L33:P33"/>
     <mergeCell ref="Q33:AL33"/>
     <mergeCell ref="AM33:AZ33"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="G34:K34"/>
-    <mergeCell ref="L34:P34"/>
-    <mergeCell ref="Q34:AL34"/>
-    <mergeCell ref="AM34:AZ34"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="G30:K30"/>
+    <mergeCell ref="L30:P30"/>
+    <mergeCell ref="Q30:AL30"/>
+    <mergeCell ref="AM30:AZ30"/>
     <mergeCell ref="C31:F31"/>
     <mergeCell ref="G31:K31"/>
     <mergeCell ref="L31:P31"/>
     <mergeCell ref="Q31:AL31"/>
     <mergeCell ref="AM31:AZ31"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="G32:K32"/>
-    <mergeCell ref="L32:P32"/>
-    <mergeCell ref="Q32:AL32"/>
-    <mergeCell ref="AM32:AZ32"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="G28:K28"/>
+    <mergeCell ref="L28:P28"/>
+    <mergeCell ref="Q28:AL28"/>
+    <mergeCell ref="AM28:AZ28"/>
     <mergeCell ref="C29:F29"/>
     <mergeCell ref="G29:K29"/>
     <mergeCell ref="L29:P29"/>
     <mergeCell ref="Q29:AL29"/>
     <mergeCell ref="AM29:AZ29"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="G30:K30"/>
-    <mergeCell ref="L30:P30"/>
-    <mergeCell ref="Q30:AL30"/>
-    <mergeCell ref="AM30:AZ30"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="G26:K26"/>
+    <mergeCell ref="L26:P26"/>
+    <mergeCell ref="Q26:AL26"/>
+    <mergeCell ref="AM26:AZ26"/>
     <mergeCell ref="C27:F27"/>
     <mergeCell ref="G27:K27"/>
     <mergeCell ref="L27:P27"/>
     <mergeCell ref="Q27:AL27"/>
     <mergeCell ref="AM27:AZ27"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="G28:K28"/>
-    <mergeCell ref="L28:P28"/>
-    <mergeCell ref="Q28:AL28"/>
-    <mergeCell ref="AM28:AZ28"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="G24:K24"/>
+    <mergeCell ref="L24:P24"/>
+    <mergeCell ref="Q24:AL24"/>
+    <mergeCell ref="AM24:AZ24"/>
     <mergeCell ref="C25:F25"/>
     <mergeCell ref="G25:K25"/>
     <mergeCell ref="L25:P25"/>
     <mergeCell ref="Q25:AL25"/>
     <mergeCell ref="AM25:AZ25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="G26:K26"/>
-    <mergeCell ref="L26:P26"/>
-    <mergeCell ref="Q26:AL26"/>
-    <mergeCell ref="AM26:AZ26"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="G22:K22"/>
+    <mergeCell ref="L22:P22"/>
+    <mergeCell ref="Q22:AL22"/>
+    <mergeCell ref="AM22:AZ22"/>
     <mergeCell ref="C23:F23"/>
     <mergeCell ref="G23:K23"/>
     <mergeCell ref="L23:P23"/>
     <mergeCell ref="Q23:AL23"/>
     <mergeCell ref="AM23:AZ23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="G24:K24"/>
-    <mergeCell ref="L24:P24"/>
-    <mergeCell ref="Q24:AL24"/>
-    <mergeCell ref="AM24:AZ24"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="G20:K20"/>
+    <mergeCell ref="L20:P20"/>
+    <mergeCell ref="Q20:AL20"/>
+    <mergeCell ref="AM20:AZ20"/>
     <mergeCell ref="C21:F21"/>
     <mergeCell ref="G21:K21"/>
     <mergeCell ref="L21:P21"/>
     <mergeCell ref="Q21:AL21"/>
     <mergeCell ref="AM21:AZ21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="G22:K22"/>
-    <mergeCell ref="L22:P22"/>
-    <mergeCell ref="Q22:AL22"/>
-    <mergeCell ref="AM22:AZ22"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="G18:K18"/>
+    <mergeCell ref="L18:P18"/>
+    <mergeCell ref="Q18:AL18"/>
+    <mergeCell ref="AM18:AZ18"/>
     <mergeCell ref="C19:F19"/>
     <mergeCell ref="G19:K19"/>
     <mergeCell ref="L19:P19"/>
     <mergeCell ref="Q19:AL19"/>
     <mergeCell ref="AM19:AZ19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="G20:K20"/>
-    <mergeCell ref="L20:P20"/>
-    <mergeCell ref="Q20:AL20"/>
-    <mergeCell ref="AM20:AZ20"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="L16:P16"/>
+    <mergeCell ref="Q16:AL16"/>
+    <mergeCell ref="AM16:AZ16"/>
     <mergeCell ref="C17:F17"/>
     <mergeCell ref="G17:K17"/>
     <mergeCell ref="L17:P17"/>
     <mergeCell ref="Q17:AL17"/>
     <mergeCell ref="AM17:AZ17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="G18:K18"/>
-    <mergeCell ref="L18:P18"/>
-    <mergeCell ref="Q18:AL18"/>
-    <mergeCell ref="AM18:AZ18"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="L14:P14"/>
+    <mergeCell ref="Q14:AL14"/>
+    <mergeCell ref="AM14:AZ14"/>
     <mergeCell ref="C15:F15"/>
     <mergeCell ref="G15:K15"/>
     <mergeCell ref="L15:P15"/>
     <mergeCell ref="Q15:AL15"/>
     <mergeCell ref="AM15:AZ15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="L16:P16"/>
-    <mergeCell ref="Q16:AL16"/>
-    <mergeCell ref="AM16:AZ16"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="L12:P12"/>
+    <mergeCell ref="Q12:AL12"/>
+    <mergeCell ref="AM12:AZ12"/>
     <mergeCell ref="C13:F13"/>
     <mergeCell ref="G13:K13"/>
     <mergeCell ref="L13:P13"/>
     <mergeCell ref="Q13:AL13"/>
     <mergeCell ref="AM13:AZ13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="L14:P14"/>
-    <mergeCell ref="Q14:AL14"/>
-    <mergeCell ref="AM14:AZ14"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="L10:P10"/>
+    <mergeCell ref="Q10:AL10"/>
+    <mergeCell ref="AM10:AZ10"/>
     <mergeCell ref="C11:F11"/>
     <mergeCell ref="G11:K11"/>
     <mergeCell ref="L11:P11"/>
     <mergeCell ref="Q11:AL11"/>
     <mergeCell ref="AM11:AZ11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="L12:P12"/>
-    <mergeCell ref="Q12:AL12"/>
-    <mergeCell ref="AM12:AZ12"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="L8:P8"/>
+    <mergeCell ref="Q8:AL8"/>
+    <mergeCell ref="AM8:AZ8"/>
+    <mergeCell ref="C8:F8"/>
     <mergeCell ref="C9:F9"/>
     <mergeCell ref="G9:K9"/>
     <mergeCell ref="L9:P9"/>
     <mergeCell ref="Q9:AL9"/>
     <mergeCell ref="AM9:AZ9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="L10:P10"/>
-    <mergeCell ref="Q10:AL10"/>
-    <mergeCell ref="AM10:AZ10"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="L8:P8"/>
-    <mergeCell ref="Q8:AL8"/>
-    <mergeCell ref="AM8:AZ8"/>
-    <mergeCell ref="C8:F8"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3440,18 +3801,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9307939-537D-9F44-B482-1E22BD0105F1}">
-  <dimension ref="A1:BA72"/>
+  <dimension ref="A1:BA77"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="108" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="70" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="108" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.28515625" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3.33203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="34" width="3.28515625" style="13"/>
-    <col min="35" max="35" width="3.28515625" style="13" customWidth="1"/>
-    <col min="36" max="16384" width="3.28515625" style="13"/>
+    <col min="1" max="34" width="3.33203125" style="13"/>
+    <col min="35" max="35" width="3.33203125" style="13" customWidth="1"/>
+    <col min="36" max="16384" width="3.33203125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" customFormat="1" ht="12">
+    <row r="1" spans="1:53" customFormat="1" ht="15">
       <c r="A1" s="32"/>
       <c r="B1" s="33"/>
       <c r="C1" s="33"/>
@@ -3503,7 +3864,7 @@
       <c r="AW1" s="33"/>
       <c r="AX1" s="33"/>
     </row>
-    <row r="2" spans="1:53" customFormat="1" ht="12">
+    <row r="2" spans="1:53" customFormat="1" ht="15">
       <c r="A2" s="34"/>
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
@@ -3555,7 +3916,7 @@
       <c r="AW2" s="35"/>
       <c r="AX2" s="35"/>
     </row>
-    <row r="3" spans="1:53" customFormat="1" ht="12">
+    <row r="3" spans="1:53" customFormat="1" ht="15">
       <c r="A3" s="34"/>
       <c r="B3" s="35"/>
       <c r="C3" s="35"/>
@@ -3607,7 +3968,7 @@
       <c r="AW3" s="35"/>
       <c r="AX3" s="35"/>
     </row>
-    <row r="4" spans="1:53" customFormat="1" ht="12">
+    <row r="4" spans="1:53" customFormat="1" ht="15">
       <c r="A4" s="34"/>
       <c r="B4" s="35"/>
       <c r="C4" s="35"/>
@@ -3659,7 +4020,7 @@
       <c r="AW4" s="35"/>
       <c r="AX4" s="35"/>
     </row>
-    <row r="5" spans="1:53" customFormat="1" ht="12">
+    <row r="5" spans="1:53" customFormat="1" ht="15">
       <c r="A5" s="34" t="s">
         <v>15</v>
       </c>
@@ -3715,7 +4076,7 @@
     </row>
     <row r="6" spans="1:53" customFormat="1">
       <c r="A6" s="36" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B6" s="35"/>
       <c r="C6" s="35"/>
@@ -3769,7 +4130,7 @@
     </row>
     <row r="7" spans="1:53">
       <c r="A7" s="36" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B7" s="20"/>
       <c r="C7" s="20"/>
@@ -3822,7 +4183,9 @@
       <c r="AX7" s="20"/>
     </row>
     <row r="8" spans="1:53">
-      <c r="A8" s="36"/>
+      <c r="A8" s="36" t="s">
+        <v>50</v>
+      </c>
       <c r="B8" s="20"/>
       <c r="C8" s="20"/>
       <c r="D8" s="20"/>
@@ -3873,68 +4236,63 @@
       <c r="AW8" s="20"/>
       <c r="AX8" s="20"/>
     </row>
-    <row r="9" spans="1:53" s="51" customFormat="1">
-      <c r="A9" s="50" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" s="50"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="50"/>
-      <c r="L9" s="50"/>
-      <c r="M9" s="50"/>
-      <c r="N9" s="50"/>
-      <c r="O9" s="50"/>
-      <c r="P9" s="50"/>
-      <c r="Q9" s="50"/>
-      <c r="R9" s="50"/>
-      <c r="S9" s="50"/>
-      <c r="T9" s="50"/>
-      <c r="U9" s="50"/>
-      <c r="V9" s="50"/>
-      <c r="W9" s="50"/>
-      <c r="X9" s="50"/>
-      <c r="Y9" s="50"/>
-      <c r="Z9" s="50"/>
-      <c r="AA9" s="50"/>
-      <c r="AB9" s="50"/>
-      <c r="AC9" s="50"/>
-      <c r="AD9" s="50"/>
-      <c r="AE9" s="50"/>
-      <c r="AF9" s="50"/>
-      <c r="AG9" s="50"/>
-      <c r="AH9" s="50"/>
-      <c r="AI9" s="50"/>
-      <c r="AJ9" s="50"/>
-      <c r="AK9" s="50"/>
-      <c r="AL9" s="50"/>
-      <c r="AM9" s="50"/>
-      <c r="AN9" s="50"/>
-      <c r="AO9" s="50"/>
-      <c r="AP9" s="50"/>
-      <c r="AQ9" s="50"/>
-      <c r="AR9" s="50"/>
-      <c r="AS9" s="50"/>
-      <c r="AT9" s="50"/>
-      <c r="AU9" s="50"/>
-      <c r="AV9" s="50"/>
-      <c r="AW9" s="50"/>
-      <c r="AX9" s="50"/>
-      <c r="AY9" s="50"/>
-      <c r="AZ9" s="50"/>
-      <c r="BA9" s="50"/>
+    <row r="9" spans="1:53">
+      <c r="A9" s="36"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="20"/>
+      <c r="T9" s="20"/>
+      <c r="U9" s="20"/>
+      <c r="V9" s="20"/>
+      <c r="W9" s="20"/>
+      <c r="X9" s="20"/>
+      <c r="Y9" s="20"/>
+      <c r="Z9" s="20"/>
+      <c r="AA9" s="20"/>
+      <c r="AB9" s="20"/>
+      <c r="AC9" s="20"/>
+      <c r="AD9" s="20"/>
+      <c r="AE9" s="20"/>
+      <c r="AF9" s="20"/>
+      <c r="AG9" s="20"/>
+      <c r="AH9" s="20"/>
+      <c r="AI9" s="20"/>
+      <c r="AJ9" s="20"/>
+      <c r="AK9" s="20"/>
+      <c r="AL9" s="20"/>
+      <c r="AM9" s="20"/>
+      <c r="AN9" s="20"/>
+      <c r="AO9" s="20"/>
+      <c r="AP9" s="20"/>
+      <c r="AQ9" s="20"/>
+      <c r="AR9" s="20"/>
+      <c r="AS9" s="20"/>
+      <c r="AT9" s="20"/>
+      <c r="AU9" s="20"/>
+      <c r="AV9" s="20"/>
+      <c r="AW9" s="20"/>
+      <c r="AX9" s="20"/>
     </row>
     <row r="10" spans="1:53" s="51" customFormat="1">
-      <c r="A10" s="52"/>
-      <c r="B10" s="50" t="s">
-        <v>41</v>
-      </c>
+      <c r="A10" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="50"/>
       <c r="C10" s="50"/>
       <c r="D10" s="50"/>
       <c r="E10" s="50"/>
@@ -3989,7 +4347,9 @@
     </row>
     <row r="11" spans="1:53" s="51" customFormat="1">
       <c r="A11" s="52"/>
-      <c r="B11" s="50"/>
+      <c r="B11" s="50" t="s">
+        <v>39</v>
+      </c>
       <c r="C11" s="50"/>
       <c r="D11" s="50"/>
       <c r="E11" s="50"/>
@@ -4042,63 +4402,64 @@
       <c r="AZ11" s="50"/>
       <c r="BA11" s="50"/>
     </row>
-    <row r="12" spans="1:53">
-      <c r="A12" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="20"/>
-      <c r="O12" s="20"/>
-      <c r="P12" s="20"/>
-      <c r="Q12" s="20"/>
-      <c r="R12" s="20"/>
-      <c r="S12" s="20"/>
-      <c r="T12" s="20"/>
-      <c r="U12" s="20"/>
-      <c r="V12" s="20"/>
-      <c r="W12" s="20"/>
-      <c r="X12" s="20"/>
-      <c r="Y12" s="20"/>
-      <c r="Z12" s="20"/>
-      <c r="AA12" s="20"/>
-      <c r="AB12" s="20"/>
-      <c r="AC12" s="20"/>
-      <c r="AD12" s="20"/>
-      <c r="AE12" s="20"/>
-      <c r="AF12" s="20"/>
-      <c r="AG12" s="20"/>
-      <c r="AH12" s="20"/>
-      <c r="AI12" s="20"/>
-      <c r="AJ12" s="20"/>
-      <c r="AK12" s="20"/>
-      <c r="AL12" s="20"/>
-      <c r="AM12" s="20"/>
-      <c r="AN12" s="20"/>
-      <c r="AO12" s="20"/>
-      <c r="AP12" s="20"/>
-      <c r="AQ12" s="20"/>
-      <c r="AR12" s="20"/>
-      <c r="AS12" s="20"/>
-      <c r="AT12" s="20"/>
-      <c r="AU12" s="20"/>
-      <c r="AV12" s="20"/>
-      <c r="AW12" s="20"/>
-      <c r="AX12" s="20"/>
+    <row r="12" spans="1:53" s="51" customFormat="1">
+      <c r="A12" s="52"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="50"/>
+      <c r="L12" s="50"/>
+      <c r="M12" s="50"/>
+      <c r="N12" s="50"/>
+      <c r="O12" s="50"/>
+      <c r="P12" s="50"/>
+      <c r="Q12" s="50"/>
+      <c r="R12" s="50"/>
+      <c r="S12" s="50"/>
+      <c r="T12" s="50"/>
+      <c r="U12" s="50"/>
+      <c r="V12" s="50"/>
+      <c r="W12" s="50"/>
+      <c r="X12" s="50"/>
+      <c r="Y12" s="50"/>
+      <c r="Z12" s="50"/>
+      <c r="AA12" s="50"/>
+      <c r="AB12" s="50"/>
+      <c r="AC12" s="50"/>
+      <c r="AD12" s="50"/>
+      <c r="AE12" s="50"/>
+      <c r="AF12" s="50"/>
+      <c r="AG12" s="50"/>
+      <c r="AH12" s="50"/>
+      <c r="AI12" s="50"/>
+      <c r="AJ12" s="50"/>
+      <c r="AK12" s="50"/>
+      <c r="AL12" s="50"/>
+      <c r="AM12" s="50"/>
+      <c r="AN12" s="50"/>
+      <c r="AO12" s="50"/>
+      <c r="AP12" s="50"/>
+      <c r="AQ12" s="50"/>
+      <c r="AR12" s="50"/>
+      <c r="AS12" s="50"/>
+      <c r="AT12" s="50"/>
+      <c r="AU12" s="50"/>
+      <c r="AV12" s="50"/>
+      <c r="AW12" s="50"/>
+      <c r="AX12" s="50"/>
+      <c r="AY12" s="50"/>
+      <c r="AZ12" s="50"/>
+      <c r="BA12" s="50"/>
     </row>
     <row r="13" spans="1:53">
       <c r="A13" s="36" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="B13" s="20"/>
       <c r="C13" s="20"/>
@@ -4151,7 +4512,9 @@
       <c r="AX13" s="20"/>
     </row>
     <row r="14" spans="1:53">
-      <c r="A14" s="36"/>
+      <c r="A14" s="36" t="s">
+        <v>29</v>
+      </c>
       <c r="B14" s="20"/>
       <c r="C14" s="20"/>
       <c r="D14" s="20"/>
@@ -4203,162 +4566,162 @@
       <c r="AX14" s="20"/>
     </row>
     <row r="15" spans="1:53">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="36"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="20"/>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="20"/>
+      <c r="R15" s="20"/>
+      <c r="S15" s="20"/>
+      <c r="T15" s="20"/>
+      <c r="U15" s="20"/>
+      <c r="V15" s="20"/>
+      <c r="W15" s="20"/>
+      <c r="X15" s="20"/>
+      <c r="Y15" s="20"/>
+      <c r="Z15" s="20"/>
+      <c r="AA15" s="20"/>
+      <c r="AB15" s="20"/>
+      <c r="AC15" s="20"/>
+      <c r="AD15" s="20"/>
+      <c r="AE15" s="20"/>
+      <c r="AF15" s="20"/>
+      <c r="AG15" s="20"/>
+      <c r="AH15" s="20"/>
+      <c r="AI15" s="20"/>
+      <c r="AJ15" s="20"/>
+      <c r="AK15" s="20"/>
+      <c r="AL15" s="20"/>
+      <c r="AM15" s="20"/>
+      <c r="AN15" s="20"/>
+      <c r="AO15" s="20"/>
+      <c r="AP15" s="20"/>
+      <c r="AQ15" s="20"/>
+      <c r="AR15" s="20"/>
+      <c r="AS15" s="20"/>
+      <c r="AT15" s="20"/>
+      <c r="AU15" s="20"/>
+      <c r="AV15" s="20"/>
+      <c r="AW15" s="20"/>
+      <c r="AX15" s="20"/>
+    </row>
+    <row r="16" spans="1:53">
+      <c r="A16" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="15"/>
-      <c r="P15" s="15"/>
-      <c r="Q15" s="15"/>
-      <c r="R15" s="15"/>
-      <c r="S15" s="15"/>
-      <c r="T15" s="15"/>
-      <c r="U15" s="15"/>
-      <c r="V15" s="15"/>
-      <c r="W15" s="15"/>
-      <c r="X15" s="15"/>
-      <c r="Y15" s="15"/>
-      <c r="Z15" s="15"/>
-      <c r="AA15" s="15"/>
-      <c r="AB15" s="15"/>
-      <c r="AC15" s="15"/>
-      <c r="AD15" s="15"/>
-      <c r="AE15" s="15"/>
-      <c r="AF15" s="15"/>
-      <c r="AG15" s="15"/>
-      <c r="AH15" s="15"/>
-      <c r="AI15" s="15"/>
-      <c r="AJ15" s="15"/>
-      <c r="AK15" s="15"/>
-      <c r="AL15" s="15"/>
-      <c r="AM15" s="15"/>
-      <c r="AN15" s="15"/>
-      <c r="AO15" s="15"/>
-      <c r="AP15" s="15"/>
-      <c r="AQ15" s="15"/>
-      <c r="AR15" s="15"/>
-      <c r="AS15" s="15"/>
-      <c r="AT15" s="15"/>
-      <c r="AU15" s="15"/>
-      <c r="AV15" s="15"/>
-      <c r="AW15" s="15"/>
-      <c r="AX15" s="15"/>
-    </row>
-    <row r="16" spans="1:53" s="18" customFormat="1">
-      <c r="A16" s="19"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17"/>
-      <c r="R16" s="17"/>
-      <c r="S16" s="17"/>
-      <c r="T16" s="17"/>
-      <c r="U16" s="17"/>
-      <c r="V16" s="17"/>
-      <c r="W16" s="17"/>
-      <c r="X16" s="17"/>
-      <c r="Y16" s="17"/>
-      <c r="Z16" s="17"/>
-      <c r="AA16" s="17"/>
-      <c r="AB16" s="37"/>
-      <c r="AC16" s="37"/>
-      <c r="AD16" s="37"/>
-      <c r="AE16" s="37"/>
-      <c r="AF16" s="37"/>
-      <c r="AG16" s="37"/>
-      <c r="AH16" s="37"/>
-      <c r="AI16" s="37"/>
-      <c r="AJ16" s="37"/>
-      <c r="AK16" s="37"/>
-      <c r="AL16" s="37"/>
-      <c r="AM16" s="37"/>
-      <c r="AN16" s="37"/>
-      <c r="AO16" s="37"/>
-      <c r="AP16" s="37"/>
-      <c r="AQ16" s="37"/>
-      <c r="AR16" s="37"/>
-      <c r="AS16" s="37"/>
-      <c r="AT16" s="37"/>
-      <c r="AU16" s="37"/>
-      <c r="AV16" s="37"/>
-      <c r="AW16" s="37"/>
-      <c r="AX16" s="37"/>
-    </row>
-    <row r="17" spans="1:50">
-      <c r="A17" s="36"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="20"/>
-      <c r="N17" s="20"/>
-      <c r="O17" s="20"/>
-      <c r="P17" s="20"/>
-      <c r="Q17" s="20"/>
-      <c r="R17" s="20"/>
-      <c r="S17" s="20"/>
-      <c r="T17" s="20"/>
-      <c r="U17" s="20"/>
-      <c r="V17" s="20"/>
-      <c r="W17" s="20"/>
-      <c r="X17" s="20"/>
-      <c r="Y17" s="20"/>
-      <c r="Z17" s="20"/>
-      <c r="AA17" s="20"/>
-      <c r="AB17" s="20"/>
-      <c r="AC17" s="20"/>
-      <c r="AD17" s="20"/>
-      <c r="AE17" s="20"/>
-      <c r="AF17" s="20"/>
-      <c r="AG17" s="20"/>
-      <c r="AH17" s="20"/>
-      <c r="AI17" s="20"/>
-      <c r="AJ17" s="20"/>
-      <c r="AK17" s="20"/>
-      <c r="AL17" s="20"/>
-      <c r="AM17" s="20"/>
-      <c r="AN17" s="20"/>
-      <c r="AO17" s="20"/>
-      <c r="AP17" s="20"/>
-      <c r="AQ17" s="20"/>
-      <c r="AR17" s="20"/>
-      <c r="AS17" s="20"/>
-      <c r="AT17" s="20"/>
-      <c r="AU17" s="20"/>
-      <c r="AV17" s="20"/>
-      <c r="AW17" s="20"/>
-      <c r="AX17" s="20"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="15"/>
+      <c r="S16" s="15"/>
+      <c r="T16" s="15"/>
+      <c r="U16" s="15"/>
+      <c r="V16" s="15"/>
+      <c r="W16" s="15"/>
+      <c r="X16" s="15"/>
+      <c r="Y16" s="15"/>
+      <c r="Z16" s="15"/>
+      <c r="AA16" s="15"/>
+      <c r="AB16" s="15"/>
+      <c r="AC16" s="15"/>
+      <c r="AD16" s="15"/>
+      <c r="AE16" s="15"/>
+      <c r="AF16" s="15"/>
+      <c r="AG16" s="15"/>
+      <c r="AH16" s="15"/>
+      <c r="AI16" s="15"/>
+      <c r="AJ16" s="15"/>
+      <c r="AK16" s="15"/>
+      <c r="AL16" s="15"/>
+      <c r="AM16" s="15"/>
+      <c r="AN16" s="15"/>
+      <c r="AO16" s="15"/>
+      <c r="AP16" s="15"/>
+      <c r="AQ16" s="15"/>
+      <c r="AR16" s="15"/>
+      <c r="AS16" s="15"/>
+      <c r="AT16" s="15"/>
+      <c r="AU16" s="15"/>
+      <c r="AV16" s="15"/>
+      <c r="AW16" s="15"/>
+      <c r="AX16" s="15"/>
+    </row>
+    <row r="17" spans="1:50" s="18" customFormat="1">
+      <c r="A17" s="19"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="17"/>
+      <c r="S17" s="17"/>
+      <c r="T17" s="17"/>
+      <c r="U17" s="17"/>
+      <c r="V17" s="17"/>
+      <c r="W17" s="17"/>
+      <c r="X17" s="17"/>
+      <c r="Y17" s="17"/>
+      <c r="Z17" s="17"/>
+      <c r="AA17" s="17"/>
+      <c r="AB17" s="37"/>
+      <c r="AC17" s="37"/>
+      <c r="AD17" s="37"/>
+      <c r="AE17" s="37"/>
+      <c r="AF17" s="37"/>
+      <c r="AG17" s="37"/>
+      <c r="AH17" s="37"/>
+      <c r="AI17" s="37"/>
+      <c r="AJ17" s="37"/>
+      <c r="AK17" s="37"/>
+      <c r="AL17" s="37"/>
+      <c r="AM17" s="37"/>
+      <c r="AN17" s="37"/>
+      <c r="AO17" s="37"/>
+      <c r="AP17" s="37"/>
+      <c r="AQ17" s="37"/>
+      <c r="AR17" s="37"/>
+      <c r="AS17" s="37"/>
+      <c r="AT17" s="37"/>
+      <c r="AU17" s="37"/>
+      <c r="AV17" s="37"/>
+      <c r="AW17" s="37"/>
+      <c r="AX17" s="37"/>
     </row>
     <row r="18" spans="1:50">
       <c r="A18" s="36"/>
@@ -5088,7 +5451,7 @@
       <c r="AW31" s="20"/>
       <c r="AX31" s="20"/>
     </row>
-    <row r="32" spans="1:50" ht="25.5">
+    <row r="32" spans="1:50">
       <c r="A32" s="36"/>
       <c r="B32" s="20"/>
       <c r="C32" s="20"/>
@@ -5127,7 +5490,7 @@
       <c r="AJ32" s="20"/>
       <c r="AK32" s="20"/>
       <c r="AL32" s="20"/>
-      <c r="AM32" s="49"/>
+      <c r="AM32" s="20"/>
       <c r="AN32" s="20"/>
       <c r="AO32" s="20"/>
       <c r="AP32" s="20"/>
@@ -5140,7 +5503,7 @@
       <c r="AW32" s="20"/>
       <c r="AX32" s="20"/>
     </row>
-    <row r="33" spans="1:50">
+    <row r="33" spans="1:50" ht="25">
       <c r="A33" s="36"/>
       <c r="B33" s="20"/>
       <c r="C33" s="20"/>
@@ -5179,7 +5542,7 @@
       <c r="AJ33" s="20"/>
       <c r="AK33" s="20"/>
       <c r="AL33" s="20"/>
-      <c r="AM33" s="20"/>
+      <c r="AM33" s="49"/>
       <c r="AN33" s="20"/>
       <c r="AO33" s="20"/>
       <c r="AP33" s="20"/>
@@ -6077,110 +6440,110 @@
       <c r="AX50" s="20"/>
     </row>
     <row r="51" spans="1:51">
-      <c r="A51" s="14" t="s">
+      <c r="A51" s="36"/>
+      <c r="B51" s="20"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="20"/>
+      <c r="E51" s="20"/>
+      <c r="F51" s="20"/>
+      <c r="G51" s="20"/>
+      <c r="H51" s="20"/>
+      <c r="I51" s="20"/>
+      <c r="J51" s="20"/>
+      <c r="K51" s="20"/>
+      <c r="L51" s="20"/>
+      <c r="M51" s="20"/>
+      <c r="N51" s="20"/>
+      <c r="O51" s="20"/>
+      <c r="P51" s="20"/>
+      <c r="Q51" s="20"/>
+      <c r="R51" s="20"/>
+      <c r="S51" s="20"/>
+      <c r="T51" s="20"/>
+      <c r="U51" s="20"/>
+      <c r="V51" s="20"/>
+      <c r="W51" s="20"/>
+      <c r="X51" s="20"/>
+      <c r="Y51" s="20"/>
+      <c r="Z51" s="20"/>
+      <c r="AA51" s="20"/>
+      <c r="AB51" s="20"/>
+      <c r="AC51" s="20"/>
+      <c r="AD51" s="20"/>
+      <c r="AE51" s="20"/>
+      <c r="AF51" s="20"/>
+      <c r="AG51" s="20"/>
+      <c r="AH51" s="20"/>
+      <c r="AI51" s="20"/>
+      <c r="AJ51" s="20"/>
+      <c r="AK51" s="20"/>
+      <c r="AL51" s="20"/>
+      <c r="AM51" s="20"/>
+      <c r="AN51" s="20"/>
+      <c r="AO51" s="20"/>
+      <c r="AP51" s="20"/>
+      <c r="AQ51" s="20"/>
+      <c r="AR51" s="20"/>
+      <c r="AS51" s="20"/>
+      <c r="AT51" s="20"/>
+      <c r="AU51" s="20"/>
+      <c r="AV51" s="20"/>
+      <c r="AW51" s="20"/>
+      <c r="AX51" s="20"/>
+    </row>
+    <row r="52" spans="1:51">
+      <c r="A52" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B51" s="15"/>
-      <c r="C51" s="15"/>
-      <c r="D51" s="15"/>
-      <c r="E51" s="15"/>
-      <c r="F51" s="15"/>
-      <c r="G51" s="15"/>
-      <c r="H51" s="15"/>
-      <c r="I51" s="15"/>
-      <c r="J51" s="15"/>
-      <c r="K51" s="15"/>
-      <c r="L51" s="15"/>
-      <c r="M51" s="15"/>
-      <c r="N51" s="15"/>
-      <c r="O51" s="15"/>
-      <c r="P51" s="15"/>
-      <c r="Q51" s="15"/>
-      <c r="R51" s="15"/>
-      <c r="S51" s="15"/>
-      <c r="T51" s="15"/>
-      <c r="U51" s="15"/>
-      <c r="V51" s="15"/>
-      <c r="W51" s="15"/>
-      <c r="X51" s="15"/>
-      <c r="Y51" s="15"/>
-      <c r="Z51" s="15"/>
-      <c r="AA51" s="15"/>
-      <c r="AB51" s="15"/>
-      <c r="AC51" s="15"/>
-      <c r="AD51" s="15"/>
-      <c r="AE51" s="15"/>
-      <c r="AF51" s="15"/>
-      <c r="AG51" s="15"/>
-      <c r="AH51" s="15"/>
-      <c r="AI51" s="15"/>
-      <c r="AJ51" s="15"/>
-      <c r="AK51" s="15"/>
-      <c r="AL51" s="15"/>
-      <c r="AM51" s="15"/>
-      <c r="AN51" s="15"/>
-      <c r="AO51" s="15"/>
-      <c r="AP51" s="15"/>
-      <c r="AQ51" s="15"/>
-      <c r="AR51" s="15"/>
-      <c r="AS51" s="15"/>
-      <c r="AT51" s="15"/>
-      <c r="AU51" s="15"/>
-      <c r="AV51" s="15"/>
-      <c r="AW51" s="15"/>
-      <c r="AX51" s="15"/>
-    </row>
-    <row r="52" spans="1:51">
-      <c r="A52" s="36"/>
-      <c r="B52" s="20"/>
-      <c r="C52" s="20"/>
-      <c r="D52" s="20"/>
-      <c r="E52" s="20"/>
-      <c r="F52" s="20"/>
-      <c r="G52" s="20"/>
-      <c r="H52" s="20"/>
-      <c r="I52" s="20"/>
-      <c r="J52" s="20"/>
-      <c r="K52" s="20"/>
-      <c r="L52" s="20"/>
-      <c r="M52" s="20"/>
-      <c r="N52" s="20"/>
-      <c r="O52" s="20"/>
-      <c r="P52" s="20"/>
-      <c r="Q52" s="20"/>
-      <c r="R52" s="20"/>
-      <c r="S52" s="20"/>
-      <c r="T52" s="20"/>
-      <c r="U52" s="20"/>
-      <c r="V52" s="20"/>
-      <c r="W52" s="20"/>
-      <c r="X52" s="20"/>
-      <c r="Y52" s="20"/>
-      <c r="Z52" s="20"/>
-      <c r="AA52" s="20"/>
-      <c r="AB52" s="20"/>
-      <c r="AC52" s="20"/>
-      <c r="AD52" s="20"/>
-      <c r="AE52" s="20"/>
-      <c r="AF52" s="20"/>
-      <c r="AG52" s="20"/>
-      <c r="AH52" s="20"/>
-      <c r="AI52" s="20"/>
-      <c r="AJ52" s="20"/>
-      <c r="AK52" s="20"/>
-      <c r="AL52" s="20"/>
-      <c r="AM52" s="20"/>
-      <c r="AN52" s="20"/>
-      <c r="AO52" s="20"/>
-      <c r="AP52" s="20"/>
-      <c r="AQ52" s="20"/>
-      <c r="AR52" s="20"/>
-      <c r="AS52" s="20"/>
-      <c r="AT52" s="20"/>
-      <c r="AU52" s="20"/>
-      <c r="AV52" s="20"/>
-      <c r="AW52" s="20"/>
-      <c r="AX52" s="20"/>
+      <c r="B52" s="15"/>
+      <c r="C52" s="15"/>
+      <c r="D52" s="15"/>
+      <c r="E52" s="15"/>
+      <c r="F52" s="15"/>
+      <c r="G52" s="15"/>
+      <c r="H52" s="15"/>
+      <c r="I52" s="15"/>
+      <c r="J52" s="15"/>
+      <c r="K52" s="15"/>
+      <c r="L52" s="15"/>
+      <c r="M52" s="15"/>
+      <c r="N52" s="15"/>
+      <c r="O52" s="15"/>
+      <c r="P52" s="15"/>
+      <c r="Q52" s="15"/>
+      <c r="R52" s="15"/>
+      <c r="S52" s="15"/>
+      <c r="T52" s="15"/>
+      <c r="U52" s="15"/>
+      <c r="V52" s="15"/>
+      <c r="W52" s="15"/>
+      <c r="X52" s="15"/>
+      <c r="Y52" s="15"/>
+      <c r="Z52" s="15"/>
+      <c r="AA52" s="15"/>
+      <c r="AB52" s="15"/>
+      <c r="AC52" s="15"/>
+      <c r="AD52" s="15"/>
+      <c r="AE52" s="15"/>
+      <c r="AF52" s="15"/>
+      <c r="AG52" s="15"/>
+      <c r="AH52" s="15"/>
+      <c r="AI52" s="15"/>
+      <c r="AJ52" s="15"/>
+      <c r="AK52" s="15"/>
+      <c r="AL52" s="15"/>
+      <c r="AM52" s="15"/>
+      <c r="AN52" s="15"/>
+      <c r="AO52" s="15"/>
+      <c r="AP52" s="15"/>
+      <c r="AQ52" s="15"/>
+      <c r="AR52" s="15"/>
+      <c r="AS52" s="15"/>
+      <c r="AT52" s="15"/>
+      <c r="AU52" s="15"/>
+      <c r="AV52" s="15"/>
+      <c r="AW52" s="15"/>
+      <c r="AX52" s="15"/>
     </row>
     <row r="53" spans="1:51">
       <c r="A53" s="36"/>
@@ -6236,9 +6599,7 @@
     </row>
     <row r="54" spans="1:51">
       <c r="A54" s="36"/>
-      <c r="B54" s="20" t="s">
-        <v>33</v>
-      </c>
+      <c r="B54" s="20"/>
       <c r="C54" s="20"/>
       <c r="D54" s="20"/>
       <c r="E54" s="20"/>
@@ -6288,144 +6649,134 @@
       <c r="AW54" s="20"/>
       <c r="AX54" s="20"/>
     </row>
-    <row r="55" spans="1:51" s="26" customFormat="1">
+    <row r="55" spans="1:51">
       <c r="A55" s="36"/>
-      <c r="B55" s="21" t="s">
+      <c r="B55" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C55" s="20"/>
+      <c r="D55" s="20"/>
+      <c r="E55" s="20"/>
+      <c r="F55" s="20"/>
+      <c r="G55" s="20"/>
+      <c r="H55" s="20"/>
+      <c r="I55" s="20"/>
+      <c r="J55" s="20"/>
+      <c r="K55" s="20"/>
+      <c r="L55" s="20"/>
+      <c r="M55" s="20"/>
+      <c r="N55" s="20"/>
+      <c r="O55" s="20"/>
+      <c r="P55" s="20"/>
+      <c r="Q55" s="20"/>
+      <c r="R55" s="20"/>
+      <c r="S55" s="20"/>
+      <c r="T55" s="20"/>
+      <c r="U55" s="20"/>
+      <c r="V55" s="20"/>
+      <c r="W55" s="20"/>
+      <c r="X55" s="20"/>
+      <c r="Y55" s="20"/>
+      <c r="Z55" s="20"/>
+      <c r="AA55" s="20"/>
+      <c r="AB55" s="20"/>
+      <c r="AC55" s="20"/>
+      <c r="AD55" s="20"/>
+      <c r="AE55" s="20"/>
+      <c r="AF55" s="20"/>
+      <c r="AG55" s="20"/>
+      <c r="AH55" s="20"/>
+      <c r="AI55" s="20"/>
+      <c r="AJ55" s="20"/>
+      <c r="AK55" s="20"/>
+      <c r="AL55" s="20"/>
+      <c r="AM55" s="20"/>
+      <c r="AN55" s="20"/>
+      <c r="AO55" s="20"/>
+      <c r="AP55" s="20"/>
+      <c r="AQ55" s="20"/>
+      <c r="AR55" s="20"/>
+      <c r="AS55" s="20"/>
+      <c r="AT55" s="20"/>
+      <c r="AU55" s="20"/>
+      <c r="AV55" s="20"/>
+      <c r="AW55" s="20"/>
+      <c r="AX55" s="20"/>
+    </row>
+    <row r="56" spans="1:51" s="26" customFormat="1">
+      <c r="A56" s="36"/>
+      <c r="B56" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C55" s="22"/>
-      <c r="D55" s="14" t="s">
+      <c r="C56" s="22"/>
+      <c r="D56" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E55" s="15"/>
-      <c r="F55" s="15"/>
-      <c r="G55" s="15"/>
-      <c r="H55" s="15"/>
-      <c r="I55" s="15"/>
-      <c r="J55" s="16"/>
-      <c r="K55" s="86" t="s">
+      <c r="E56" s="15"/>
+      <c r="F56" s="15"/>
+      <c r="G56" s="15"/>
+      <c r="H56" s="15"/>
+      <c r="I56" s="15"/>
+      <c r="J56" s="16"/>
+      <c r="K56" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="L55" s="87"/>
-      <c r="M55" s="87"/>
-      <c r="N55" s="88"/>
-      <c r="O55" s="21" t="s">
+      <c r="L56" s="87"/>
+      <c r="M56" s="87"/>
+      <c r="N56" s="88"/>
+      <c r="O56" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="P55" s="23"/>
-      <c r="Q55" s="23"/>
-      <c r="R55" s="23"/>
-      <c r="S55" s="23"/>
-      <c r="T55" s="23"/>
-      <c r="U55" s="23"/>
-      <c r="V55" s="23"/>
-      <c r="W55" s="23"/>
-      <c r="X55" s="22"/>
-      <c r="Y55" s="44" t="s">
+      <c r="P56" s="23"/>
+      <c r="Q56" s="23"/>
+      <c r="R56" s="23"/>
+      <c r="S56" s="23"/>
+      <c r="T56" s="23"/>
+      <c r="U56" s="23"/>
+      <c r="V56" s="23"/>
+      <c r="W56" s="23"/>
+      <c r="X56" s="22"/>
+      <c r="Y56" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="Z55" s="25"/>
-      <c r="AA55" s="25"/>
-      <c r="AB55" s="25"/>
-      <c r="AC55" s="22"/>
-      <c r="AD55" s="21" t="s">
+      <c r="Z56" s="25"/>
+      <c r="AA56" s="25"/>
+      <c r="AB56" s="25"/>
+      <c r="AC56" s="22"/>
+      <c r="AD56" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="AE55" s="25"/>
-      <c r="AF55" s="25"/>
-      <c r="AG55" s="25"/>
-      <c r="AH55" s="23"/>
-      <c r="AI55" s="23"/>
-      <c r="AJ55" s="23"/>
-      <c r="AK55" s="23"/>
-      <c r="AL55" s="23"/>
-      <c r="AM55" s="23"/>
-      <c r="AN55" s="24"/>
-      <c r="AO55" s="21" t="s">
+      <c r="AE56" s="25"/>
+      <c r="AF56" s="25"/>
+      <c r="AG56" s="25"/>
+      <c r="AH56" s="23"/>
+      <c r="AI56" s="23"/>
+      <c r="AJ56" s="23"/>
+      <c r="AK56" s="23"/>
+      <c r="AL56" s="23"/>
+      <c r="AM56" s="23"/>
+      <c r="AN56" s="24"/>
+      <c r="AO56" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="AP55" s="23"/>
-      <c r="AQ55" s="23"/>
-      <c r="AR55" s="23"/>
-      <c r="AS55" s="23"/>
-      <c r="AT55" s="23"/>
-      <c r="AU55" s="23"/>
-      <c r="AV55" s="23"/>
-      <c r="AW55" s="24"/>
-      <c r="AX55" s="20"/>
-    </row>
-    <row r="56" spans="1:51">
-      <c r="A56" s="36"/>
-      <c r="B56" s="43">
-        <v>1</v>
-      </c>
-      <c r="C56" s="40"/>
-      <c r="D56" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="E56" s="39"/>
-      <c r="F56" s="39"/>
-      <c r="G56" s="39"/>
-      <c r="H56" s="39"/>
-      <c r="I56" s="39"/>
-      <c r="J56" s="40"/>
-      <c r="K56" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="L56" s="39"/>
-      <c r="M56" s="39"/>
-      <c r="N56" s="40"/>
-      <c r="O56" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="P56" s="39"/>
-      <c r="Q56" s="39"/>
-      <c r="R56" s="39"/>
-      <c r="S56" s="39"/>
-      <c r="T56" s="39"/>
-      <c r="U56" s="39"/>
-      <c r="V56" s="39"/>
-      <c r="W56" s="39"/>
-      <c r="X56" s="40"/>
-      <c r="Y56" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z56" s="39"/>
-      <c r="AA56" s="39"/>
-      <c r="AB56" s="39"/>
-      <c r="AC56" s="40"/>
-      <c r="AD56" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="AE56" s="39"/>
-      <c r="AF56" s="39"/>
-      <c r="AG56" s="39"/>
-      <c r="AH56" s="39"/>
-      <c r="AI56" s="39"/>
-      <c r="AJ56" s="39"/>
-      <c r="AK56" s="39"/>
-      <c r="AL56" s="39"/>
-      <c r="AM56" s="39"/>
-      <c r="AN56" s="40"/>
-      <c r="AO56" s="38"/>
-      <c r="AP56" s="39"/>
-      <c r="AQ56" s="39"/>
-      <c r="AR56" s="39"/>
-      <c r="AS56" s="39"/>
-      <c r="AT56" s="39"/>
-      <c r="AU56" s="39"/>
-      <c r="AV56" s="39"/>
-      <c r="AW56" s="40"/>
-      <c r="AX56" s="37"/>
+      <c r="AP56" s="23"/>
+      <c r="AQ56" s="23"/>
+      <c r="AR56" s="23"/>
+      <c r="AS56" s="23"/>
+      <c r="AT56" s="23"/>
+      <c r="AU56" s="23"/>
+      <c r="AV56" s="23"/>
+      <c r="AW56" s="24"/>
+      <c r="AX56" s="20"/>
     </row>
     <row r="57" spans="1:51">
       <c r="A57" s="36"/>
       <c r="B57" s="43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C57" s="40"/>
       <c r="D57" s="38" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E57" s="39"/>
       <c r="F57" s="39"/>
@@ -6434,13 +6785,13 @@
       <c r="I57" s="39"/>
       <c r="J57" s="40"/>
       <c r="K57" s="38" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L57" s="39"/>
       <c r="M57" s="39"/>
       <c r="N57" s="40"/>
       <c r="O57" s="38" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P57" s="39"/>
       <c r="Q57" s="39"/>
@@ -6480,396 +6831,708 @@
       <c r="AU57" s="39"/>
       <c r="AV57" s="39"/>
       <c r="AW57" s="40"/>
-      <c r="AX57" s="20"/>
+      <c r="AX57" s="37"/>
     </row>
     <row r="58" spans="1:51">
       <c r="A58" s="36"/>
-      <c r="B58" s="35"/>
-      <c r="C58" s="20"/>
-      <c r="D58" s="20"/>
-      <c r="E58" s="20"/>
-      <c r="F58" s="20"/>
-      <c r="G58" s="20"/>
-      <c r="H58" s="20"/>
-      <c r="I58" s="20"/>
-      <c r="J58" s="20"/>
-      <c r="K58" s="20"/>
-      <c r="L58" s="20"/>
-      <c r="M58" s="20"/>
-      <c r="N58" s="20"/>
-      <c r="O58" s="20"/>
-      <c r="P58" s="20"/>
-      <c r="Q58" s="20"/>
-      <c r="R58" s="20"/>
-      <c r="S58" s="20"/>
-      <c r="T58" s="20"/>
-      <c r="U58" s="20"/>
-      <c r="V58" s="20"/>
-      <c r="W58" s="20"/>
-      <c r="X58" s="20"/>
-      <c r="Y58" s="20"/>
-      <c r="Z58" s="20"/>
-      <c r="AA58" s="20"/>
-      <c r="AB58" s="20"/>
-      <c r="AC58" s="20"/>
-      <c r="AD58" s="20"/>
-      <c r="AE58" s="20"/>
-      <c r="AF58" s="20"/>
-      <c r="AG58" s="20"/>
-      <c r="AH58" s="20"/>
-      <c r="AI58" s="20"/>
-      <c r="AJ58" s="20"/>
-      <c r="AK58" s="20"/>
-      <c r="AL58" s="20"/>
-      <c r="AM58" s="20"/>
-      <c r="AN58" s="20"/>
-      <c r="AO58" s="20"/>
-      <c r="AP58" s="20"/>
-      <c r="AQ58" s="20"/>
-      <c r="AR58" s="20"/>
-      <c r="AS58" s="20"/>
-      <c r="AT58" s="20"/>
-      <c r="AU58" s="20"/>
-      <c r="AV58" s="20"/>
-      <c r="AW58" s="20"/>
+      <c r="B58" s="43">
+        <v>2</v>
+      </c>
+      <c r="C58" s="40"/>
+      <c r="D58" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="E58" s="39"/>
+      <c r="F58" s="39"/>
+      <c r="G58" s="39"/>
+      <c r="H58" s="39"/>
+      <c r="I58" s="39"/>
+      <c r="J58" s="40"/>
+      <c r="K58" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="L58" s="39"/>
+      <c r="M58" s="39"/>
+      <c r="N58" s="40"/>
+      <c r="O58" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="P58" s="39"/>
+      <c r="Q58" s="39"/>
+      <c r="R58" s="39"/>
+      <c r="S58" s="39"/>
+      <c r="T58" s="39"/>
+      <c r="U58" s="39"/>
+      <c r="V58" s="39"/>
+      <c r="W58" s="39"/>
+      <c r="X58" s="40"/>
+      <c r="Y58" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z58" s="39"/>
+      <c r="AA58" s="39"/>
+      <c r="AB58" s="39"/>
+      <c r="AC58" s="40"/>
+      <c r="AD58" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE58" s="39"/>
+      <c r="AF58" s="39"/>
+      <c r="AG58" s="39"/>
+      <c r="AH58" s="39"/>
+      <c r="AI58" s="39"/>
+      <c r="AJ58" s="39"/>
+      <c r="AK58" s="39"/>
+      <c r="AL58" s="39"/>
+      <c r="AM58" s="39"/>
+      <c r="AN58" s="40"/>
+      <c r="AO58" s="38"/>
+      <c r="AP58" s="39"/>
+      <c r="AQ58" s="39"/>
+      <c r="AR58" s="39"/>
+      <c r="AS58" s="39"/>
+      <c r="AT58" s="39"/>
+      <c r="AU58" s="39"/>
+      <c r="AV58" s="39"/>
+      <c r="AW58" s="40"/>
       <c r="AX58" s="20"/>
     </row>
     <row r="59" spans="1:51">
       <c r="A59" s="36"/>
-      <c r="B59" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="C59" s="20"/>
-      <c r="D59" s="20"/>
-      <c r="E59" s="20"/>
-      <c r="F59" s="20"/>
-      <c r="G59" s="20"/>
-      <c r="H59" s="20"/>
-      <c r="I59" s="20"/>
-      <c r="J59" s="20"/>
-      <c r="K59" s="20"/>
-      <c r="L59" s="20"/>
-      <c r="M59" s="20"/>
-      <c r="N59" s="20"/>
-      <c r="O59" s="20"/>
-      <c r="P59" s="20"/>
-      <c r="Q59" s="20"/>
-      <c r="R59" s="20"/>
-      <c r="S59" s="20"/>
-      <c r="T59" s="20"/>
-      <c r="U59" s="20"/>
-      <c r="V59" s="20"/>
-      <c r="W59" s="20"/>
-      <c r="X59" s="20"/>
-      <c r="Y59" s="20"/>
-      <c r="Z59" s="20"/>
-      <c r="AA59" s="20"/>
-      <c r="AB59" s="20"/>
-      <c r="AC59" s="20"/>
-      <c r="AD59" s="20"/>
-      <c r="AE59" s="20"/>
-      <c r="AF59" s="20"/>
-      <c r="AG59" s="20"/>
-      <c r="AH59" s="20"/>
-      <c r="AI59" s="20"/>
-      <c r="AJ59" s="20"/>
-      <c r="AK59" s="20"/>
-      <c r="AL59" s="20"/>
-      <c r="AM59" s="20"/>
-      <c r="AN59" s="20"/>
-      <c r="AO59" s="20"/>
-      <c r="AP59" s="20"/>
-      <c r="AQ59" s="20"/>
-      <c r="AR59" s="20"/>
-      <c r="AS59" s="20"/>
-      <c r="AT59" s="20"/>
-      <c r="AU59" s="20"/>
-      <c r="AV59" s="20"/>
-      <c r="AW59" s="20"/>
-      <c r="AX59" s="20"/>
-    </row>
-    <row r="60" spans="1:51" s="26" customFormat="1">
+      <c r="B59" s="43">
+        <v>3</v>
+      </c>
+      <c r="C59" s="40"/>
+      <c r="D59" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="E59" s="39"/>
+      <c r="F59" s="39"/>
+      <c r="G59" s="39"/>
+      <c r="H59" s="39"/>
+      <c r="I59" s="39"/>
+      <c r="J59" s="40"/>
+      <c r="K59" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="L59" s="39"/>
+      <c r="M59" s="39"/>
+      <c r="N59" s="40"/>
+      <c r="O59" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="P59" s="39"/>
+      <c r="Q59" s="39"/>
+      <c r="R59" s="39"/>
+      <c r="S59" s="39"/>
+      <c r="T59" s="39"/>
+      <c r="U59" s="39"/>
+      <c r="V59" s="39"/>
+      <c r="W59" s="39"/>
+      <c r="X59" s="40"/>
+      <c r="Y59" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z59" s="39"/>
+      <c r="AA59" s="39"/>
+      <c r="AB59" s="39"/>
+      <c r="AC59" s="40"/>
+      <c r="AD59" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE59" s="39"/>
+      <c r="AF59" s="39"/>
+      <c r="AG59" s="39"/>
+      <c r="AH59" s="39"/>
+      <c r="AI59" s="39"/>
+      <c r="AJ59" s="39"/>
+      <c r="AK59" s="39"/>
+      <c r="AL59" s="39"/>
+      <c r="AM59" s="39"/>
+      <c r="AN59" s="40"/>
+      <c r="AO59" s="38"/>
+      <c r="AP59" s="39"/>
+      <c r="AQ59" s="39"/>
+      <c r="AR59" s="39"/>
+      <c r="AS59" s="39"/>
+      <c r="AT59" s="39"/>
+      <c r="AU59" s="39"/>
+      <c r="AV59" s="39"/>
+      <c r="AW59" s="40"/>
+      <c r="AX59" s="37"/>
+    </row>
+    <row r="60" spans="1:51">
       <c r="A60" s="36"/>
-      <c r="B60" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="C60" s="22"/>
-      <c r="D60" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E60" s="15"/>
-      <c r="F60" s="15"/>
-      <c r="G60" s="15"/>
-      <c r="H60" s="15"/>
-      <c r="I60" s="15"/>
-      <c r="J60" s="16"/>
-      <c r="K60" s="89" t="s">
-        <v>36</v>
-      </c>
-      <c r="L60" s="90"/>
-      <c r="M60" s="90"/>
-      <c r="N60" s="90"/>
-      <c r="O60" s="90"/>
-      <c r="P60" s="90"/>
-      <c r="Q60" s="90"/>
-      <c r="R60" s="91"/>
-      <c r="S60" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="T60" s="23"/>
-      <c r="U60" s="23"/>
-      <c r="V60" s="23"/>
-      <c r="W60" s="23"/>
-      <c r="X60" s="23"/>
-      <c r="Y60" s="23"/>
-      <c r="Z60" s="23"/>
-      <c r="AA60" s="23"/>
-      <c r="AB60" s="25"/>
-      <c r="AC60" s="25"/>
-      <c r="AD60" s="25"/>
-      <c r="AE60" s="25"/>
-      <c r="AF60" s="25"/>
-      <c r="AG60" s="25"/>
-      <c r="AH60" s="25"/>
-      <c r="AI60" s="25"/>
-      <c r="AJ60" s="25"/>
-      <c r="AK60" s="22"/>
-      <c r="AL60" s="45"/>
-      <c r="AM60" s="45"/>
-      <c r="AN60" s="45"/>
-      <c r="AO60" s="45"/>
-      <c r="AP60" s="45"/>
-      <c r="AQ60" s="45"/>
-      <c r="AR60" s="45"/>
-      <c r="AS60" s="45"/>
-      <c r="AT60" s="45"/>
-      <c r="AU60" s="45"/>
-      <c r="AV60" s="45"/>
-      <c r="AW60" s="45"/>
-      <c r="AX60" s="45"/>
-      <c r="AY60" s="13"/>
+      <c r="B60" s="43">
+        <v>4</v>
+      </c>
+      <c r="C60" s="40"/>
+      <c r="D60" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E60" s="39"/>
+      <c r="F60" s="39"/>
+      <c r="G60" s="39"/>
+      <c r="H60" s="39"/>
+      <c r="I60" s="39"/>
+      <c r="J60" s="40"/>
+      <c r="K60" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="L60" s="39"/>
+      <c r="M60" s="39"/>
+      <c r="N60" s="40"/>
+      <c r="O60" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="P60" s="39"/>
+      <c r="Q60" s="39"/>
+      <c r="R60" s="39"/>
+      <c r="S60" s="39"/>
+      <c r="T60" s="39"/>
+      <c r="U60" s="39"/>
+      <c r="V60" s="39"/>
+      <c r="W60" s="39"/>
+      <c r="X60" s="40"/>
+      <c r="Y60" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z60" s="39"/>
+      <c r="AA60" s="39"/>
+      <c r="AB60" s="39"/>
+      <c r="AC60" s="40"/>
+      <c r="AD60" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE60" s="39"/>
+      <c r="AF60" s="39"/>
+      <c r="AG60" s="39"/>
+      <c r="AH60" s="39"/>
+      <c r="AI60" s="39"/>
+      <c r="AJ60" s="39"/>
+      <c r="AK60" s="39"/>
+      <c r="AL60" s="39"/>
+      <c r="AM60" s="39"/>
+      <c r="AN60" s="40"/>
+      <c r="AO60" s="38"/>
+      <c r="AP60" s="39"/>
+      <c r="AQ60" s="39"/>
+      <c r="AR60" s="39"/>
+      <c r="AS60" s="39"/>
+      <c r="AT60" s="39"/>
+      <c r="AU60" s="39"/>
+      <c r="AV60" s="39"/>
+      <c r="AW60" s="40"/>
+      <c r="AX60" s="20"/>
     </row>
     <row r="61" spans="1:51">
       <c r="A61" s="36"/>
-      <c r="B61" s="43">
-        <v>1</v>
-      </c>
-      <c r="C61" s="40"/>
-      <c r="D61" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="E61" s="39"/>
-      <c r="F61" s="39"/>
-      <c r="G61" s="39"/>
-      <c r="H61" s="39"/>
-      <c r="I61" s="39"/>
-      <c r="J61" s="40"/>
-      <c r="K61" s="46" t="s">
-        <v>37</v>
-      </c>
-      <c r="L61" s="47"/>
-      <c r="M61" s="47"/>
-      <c r="N61" s="47"/>
-      <c r="O61" s="47"/>
-      <c r="P61" s="47"/>
-      <c r="Q61" s="47"/>
-      <c r="R61" s="48"/>
-      <c r="S61" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="T61" s="39"/>
-      <c r="U61" s="39"/>
-      <c r="V61" s="39"/>
-      <c r="W61" s="39"/>
-      <c r="X61" s="39"/>
-      <c r="Y61" s="39"/>
-      <c r="Z61" s="39"/>
-      <c r="AA61" s="39"/>
-      <c r="AB61" s="39"/>
-      <c r="AC61" s="39"/>
-      <c r="AD61" s="39"/>
-      <c r="AE61" s="39"/>
-      <c r="AF61" s="39"/>
-      <c r="AG61" s="39"/>
-      <c r="AH61" s="39"/>
-      <c r="AI61" s="39"/>
-      <c r="AJ61" s="39"/>
-      <c r="AK61" s="40"/>
-      <c r="AL61" s="37"/>
-      <c r="AM61" s="37"/>
-      <c r="AN61" s="37"/>
-      <c r="AO61" s="37"/>
-      <c r="AP61" s="37"/>
-      <c r="AQ61" s="37"/>
-      <c r="AR61" s="37"/>
-      <c r="AS61" s="37"/>
-      <c r="AT61" s="37"/>
-      <c r="AU61" s="37"/>
-      <c r="AV61" s="37"/>
-      <c r="AW61" s="37"/>
-      <c r="AX61" s="37"/>
+      <c r="B61" s="35"/>
+      <c r="C61" s="20"/>
+      <c r="D61" s="20"/>
+      <c r="E61" s="20"/>
+      <c r="F61" s="20"/>
+      <c r="G61" s="20"/>
+      <c r="H61" s="20"/>
+      <c r="I61" s="20"/>
+      <c r="J61" s="20"/>
+      <c r="K61" s="20"/>
+      <c r="L61" s="20"/>
+      <c r="M61" s="20"/>
+      <c r="N61" s="20"/>
+      <c r="O61" s="20"/>
+      <c r="P61" s="20"/>
+      <c r="Q61" s="20"/>
+      <c r="R61" s="20"/>
+      <c r="S61" s="20"/>
+      <c r="T61" s="20"/>
+      <c r="U61" s="20"/>
+      <c r="V61" s="20"/>
+      <c r="W61" s="20"/>
+      <c r="X61" s="20"/>
+      <c r="Y61" s="20"/>
+      <c r="Z61" s="20"/>
+      <c r="AA61" s="20"/>
+      <c r="AB61" s="20"/>
+      <c r="AC61" s="20"/>
+      <c r="AD61" s="20"/>
+      <c r="AE61" s="20"/>
+      <c r="AF61" s="20"/>
+      <c r="AG61" s="20"/>
+      <c r="AH61" s="20"/>
+      <c r="AI61" s="20"/>
+      <c r="AJ61" s="20"/>
+      <c r="AK61" s="20"/>
+      <c r="AL61" s="20"/>
+      <c r="AM61" s="20"/>
+      <c r="AN61" s="20"/>
+      <c r="AO61" s="20"/>
+      <c r="AP61" s="20"/>
+      <c r="AQ61" s="20"/>
+      <c r="AR61" s="20"/>
+      <c r="AS61" s="20"/>
+      <c r="AT61" s="20"/>
+      <c r="AU61" s="20"/>
+      <c r="AV61" s="20"/>
+      <c r="AW61" s="20"/>
+      <c r="AX61" s="20"/>
     </row>
     <row r="62" spans="1:51">
       <c r="A62" s="36"/>
-      <c r="B62" s="43">
+      <c r="B62" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="C62" s="20"/>
+      <c r="D62" s="20"/>
+      <c r="E62" s="20"/>
+      <c r="F62" s="20"/>
+      <c r="G62" s="20"/>
+      <c r="H62" s="20"/>
+      <c r="I62" s="20"/>
+      <c r="J62" s="20"/>
+      <c r="K62" s="20"/>
+      <c r="L62" s="20"/>
+      <c r="M62" s="20"/>
+      <c r="N62" s="20"/>
+      <c r="O62" s="20"/>
+      <c r="P62" s="20"/>
+      <c r="Q62" s="20"/>
+      <c r="R62" s="20"/>
+      <c r="S62" s="20"/>
+      <c r="T62" s="20"/>
+      <c r="U62" s="20"/>
+      <c r="V62" s="20"/>
+      <c r="W62" s="20"/>
+      <c r="X62" s="20"/>
+      <c r="Y62" s="20"/>
+      <c r="Z62" s="20"/>
+      <c r="AA62" s="20"/>
+      <c r="AB62" s="20"/>
+      <c r="AC62" s="20"/>
+      <c r="AD62" s="20"/>
+      <c r="AE62" s="20"/>
+      <c r="AF62" s="20"/>
+      <c r="AG62" s="20"/>
+      <c r="AH62" s="20"/>
+      <c r="AI62" s="20"/>
+      <c r="AJ62" s="20"/>
+      <c r="AK62" s="20"/>
+      <c r="AL62" s="20"/>
+      <c r="AM62" s="20"/>
+      <c r="AN62" s="20"/>
+      <c r="AO62" s="20"/>
+      <c r="AP62" s="20"/>
+      <c r="AQ62" s="20"/>
+      <c r="AR62" s="20"/>
+      <c r="AS62" s="20"/>
+      <c r="AT62" s="20"/>
+      <c r="AU62" s="20"/>
+      <c r="AV62" s="20"/>
+      <c r="AW62" s="20"/>
+      <c r="AX62" s="20"/>
+    </row>
+    <row r="63" spans="1:51" s="26" customFormat="1">
+      <c r="A63" s="36"/>
+      <c r="B63" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C63" s="22"/>
+      <c r="D63" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E63" s="15"/>
+      <c r="F63" s="15"/>
+      <c r="G63" s="15"/>
+      <c r="H63" s="15"/>
+      <c r="I63" s="15"/>
+      <c r="J63" s="16"/>
+      <c r="K63" s="89" t="s">
+        <v>34</v>
+      </c>
+      <c r="L63" s="90"/>
+      <c r="M63" s="90"/>
+      <c r="N63" s="90"/>
+      <c r="O63" s="90"/>
+      <c r="P63" s="90"/>
+      <c r="Q63" s="90"/>
+      <c r="R63" s="91"/>
+      <c r="S63" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="T63" s="23"/>
+      <c r="U63" s="23"/>
+      <c r="V63" s="23"/>
+      <c r="W63" s="23"/>
+      <c r="X63" s="23"/>
+      <c r="Y63" s="23"/>
+      <c r="Z63" s="23"/>
+      <c r="AA63" s="23"/>
+      <c r="AB63" s="25"/>
+      <c r="AC63" s="25"/>
+      <c r="AD63" s="25"/>
+      <c r="AE63" s="25"/>
+      <c r="AF63" s="25"/>
+      <c r="AG63" s="25"/>
+      <c r="AH63" s="25"/>
+      <c r="AI63" s="25"/>
+      <c r="AJ63" s="25"/>
+      <c r="AK63" s="25"/>
+      <c r="AL63" s="25"/>
+      <c r="AM63" s="25"/>
+      <c r="AN63" s="25"/>
+      <c r="AO63" s="25"/>
+      <c r="AP63" s="25"/>
+      <c r="AQ63" s="25"/>
+      <c r="AR63" s="25"/>
+      <c r="AS63" s="25"/>
+      <c r="AT63" s="22"/>
+      <c r="AU63" s="45"/>
+      <c r="AV63" s="45"/>
+      <c r="AW63" s="45"/>
+      <c r="AX63" s="45"/>
+      <c r="AY63" s="13"/>
+    </row>
+    <row r="64" spans="1:51">
+      <c r="A64" s="36"/>
+      <c r="B64" s="43">
+        <v>1</v>
+      </c>
+      <c r="C64" s="40"/>
+      <c r="D64" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="E64" s="39"/>
+      <c r="F64" s="39"/>
+      <c r="G64" s="39"/>
+      <c r="H64" s="39"/>
+      <c r="I64" s="39"/>
+      <c r="J64" s="40"/>
+      <c r="K64" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="L64" s="47"/>
+      <c r="M64" s="47"/>
+      <c r="N64" s="47"/>
+      <c r="O64" s="47"/>
+      <c r="P64" s="47"/>
+      <c r="Q64" s="47"/>
+      <c r="R64" s="48"/>
+      <c r="S64" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="T64" s="39"/>
+      <c r="U64" s="39"/>
+      <c r="V64" s="39"/>
+      <c r="W64" s="39"/>
+      <c r="X64" s="39"/>
+      <c r="Y64" s="39"/>
+      <c r="Z64" s="39"/>
+      <c r="AA64" s="39"/>
+      <c r="AB64" s="39"/>
+      <c r="AC64" s="39"/>
+      <c r="AD64" s="39"/>
+      <c r="AE64" s="39"/>
+      <c r="AF64" s="39"/>
+      <c r="AG64" s="39"/>
+      <c r="AH64" s="39"/>
+      <c r="AI64" s="39"/>
+      <c r="AJ64" s="39"/>
+      <c r="AK64" s="39"/>
+      <c r="AL64" s="39"/>
+      <c r="AM64" s="39"/>
+      <c r="AN64" s="39"/>
+      <c r="AO64" s="39"/>
+      <c r="AP64" s="39"/>
+      <c r="AQ64" s="39"/>
+      <c r="AR64" s="39"/>
+      <c r="AS64" s="39"/>
+      <c r="AT64" s="40"/>
+      <c r="AU64" s="37"/>
+      <c r="AV64" s="37"/>
+      <c r="AW64" s="37"/>
+      <c r="AX64" s="37"/>
+    </row>
+    <row r="65" spans="1:50">
+      <c r="A65" s="36"/>
+      <c r="B65" s="43">
         <v>2</v>
       </c>
-      <c r="C62" s="40"/>
-      <c r="D62" s="38" t="s">
+      <c r="C65" s="40"/>
+      <c r="D65" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="E65" s="39"/>
+      <c r="F65" s="39"/>
+      <c r="G65" s="39"/>
+      <c r="H65" s="39"/>
+      <c r="I65" s="39"/>
+      <c r="J65" s="40"/>
+      <c r="K65" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="L65" s="39"/>
+      <c r="M65" s="39"/>
+      <c r="N65" s="39"/>
+      <c r="O65" s="39"/>
+      <c r="P65" s="39"/>
+      <c r="Q65" s="39"/>
+      <c r="R65" s="40"/>
+      <c r="S65" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="T65" s="39"/>
+      <c r="U65" s="39"/>
+      <c r="V65" s="39"/>
+      <c r="W65" s="39"/>
+      <c r="X65" s="39"/>
+      <c r="Y65" s="39"/>
+      <c r="Z65" s="39"/>
+      <c r="AA65" s="39"/>
+      <c r="AB65" s="39"/>
+      <c r="AC65" s="39"/>
+      <c r="AD65" s="39"/>
+      <c r="AE65" s="39"/>
+      <c r="AF65" s="39"/>
+      <c r="AG65" s="39"/>
+      <c r="AH65" s="39"/>
+      <c r="AI65" s="39"/>
+      <c r="AJ65" s="39"/>
+      <c r="AK65" s="39"/>
+      <c r="AL65" s="39"/>
+      <c r="AM65" s="39"/>
+      <c r="AN65" s="39"/>
+      <c r="AO65" s="39"/>
+      <c r="AP65" s="39"/>
+      <c r="AQ65" s="39"/>
+      <c r="AR65" s="39"/>
+      <c r="AS65" s="39"/>
+      <c r="AT65" s="40"/>
+      <c r="AU65" s="37"/>
+      <c r="AV65" s="37"/>
+      <c r="AW65" s="37"/>
+      <c r="AX65" s="37"/>
+    </row>
+    <row r="66" spans="1:50">
+      <c r="A66" s="36"/>
+      <c r="B66" s="43">
+        <v>3</v>
+      </c>
+      <c r="C66" s="40"/>
+      <c r="D66" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="E66" s="39"/>
+      <c r="F66" s="39"/>
+      <c r="G66" s="39"/>
+      <c r="H66" s="39"/>
+      <c r="I66" s="39"/>
+      <c r="J66" s="40"/>
+      <c r="K66" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="L66" s="47"/>
+      <c r="M66" s="47"/>
+      <c r="N66" s="47"/>
+      <c r="O66" s="47"/>
+      <c r="P66" s="47"/>
+      <c r="Q66" s="47"/>
+      <c r="R66" s="48"/>
+      <c r="S66" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="T66" s="39"/>
+      <c r="U66" s="39"/>
+      <c r="V66" s="39"/>
+      <c r="W66" s="39"/>
+      <c r="X66" s="39"/>
+      <c r="Y66" s="39"/>
+      <c r="Z66" s="39"/>
+      <c r="AA66" s="39"/>
+      <c r="AB66" s="39"/>
+      <c r="AC66" s="39"/>
+      <c r="AD66" s="39"/>
+      <c r="AE66" s="39"/>
+      <c r="AF66" s="39"/>
+      <c r="AG66" s="39"/>
+      <c r="AH66" s="39"/>
+      <c r="AI66" s="39"/>
+      <c r="AJ66" s="39"/>
+      <c r="AK66" s="39"/>
+      <c r="AL66" s="39"/>
+      <c r="AM66" s="39"/>
+      <c r="AN66" s="39"/>
+      <c r="AO66" s="39"/>
+      <c r="AP66" s="39"/>
+      <c r="AQ66" s="39"/>
+      <c r="AR66" s="39"/>
+      <c r="AS66" s="39"/>
+      <c r="AT66" s="40"/>
+      <c r="AU66" s="37"/>
+      <c r="AV66" s="37"/>
+      <c r="AW66" s="37"/>
+      <c r="AX66" s="37"/>
+    </row>
+    <row r="67" spans="1:50">
+      <c r="A67" s="36"/>
+      <c r="B67" s="43">
+        <v>4</v>
+      </c>
+      <c r="C67" s="40"/>
+      <c r="D67" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="E62" s="39"/>
-      <c r="F62" s="39"/>
-      <c r="G62" s="39"/>
-      <c r="H62" s="39"/>
-      <c r="I62" s="39"/>
-      <c r="J62" s="40"/>
-      <c r="K62" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="L62" s="39"/>
-      <c r="M62" s="39"/>
-      <c r="N62" s="39"/>
-      <c r="O62" s="39"/>
-      <c r="P62" s="39"/>
-      <c r="Q62" s="39"/>
-      <c r="R62" s="40"/>
-      <c r="S62" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="T62" s="39"/>
-      <c r="U62" s="39"/>
-      <c r="V62" s="39"/>
-      <c r="W62" s="39"/>
-      <c r="X62" s="39"/>
-      <c r="Y62" s="39"/>
-      <c r="Z62" s="39"/>
-      <c r="AA62" s="39"/>
-      <c r="AB62" s="39"/>
-      <c r="AC62" s="39"/>
-      <c r="AD62" s="39"/>
-      <c r="AE62" s="39"/>
-      <c r="AF62" s="39"/>
-      <c r="AG62" s="39"/>
-      <c r="AH62" s="39"/>
-      <c r="AI62" s="39"/>
-      <c r="AJ62" s="39"/>
-      <c r="AK62" s="40"/>
-      <c r="AL62" s="37"/>
-      <c r="AM62" s="37"/>
-      <c r="AN62" s="37"/>
-      <c r="AO62" s="37"/>
-      <c r="AP62" s="37"/>
-      <c r="AQ62" s="37"/>
-      <c r="AR62" s="37"/>
-      <c r="AS62" s="37"/>
-      <c r="AT62" s="37"/>
-      <c r="AU62" s="37"/>
-      <c r="AV62" s="37"/>
-      <c r="AW62" s="37"/>
-      <c r="AX62" s="37"/>
-    </row>
-    <row r="63" spans="1:51">
-      <c r="A63" s="41"/>
-      <c r="B63" s="42"/>
-      <c r="C63" s="42"/>
-      <c r="D63" s="39"/>
-      <c r="E63" s="39"/>
-      <c r="F63" s="39"/>
-      <c r="G63" s="39"/>
-      <c r="H63" s="39"/>
-      <c r="I63" s="39"/>
-      <c r="J63" s="39"/>
-      <c r="K63" s="39"/>
-      <c r="L63" s="39"/>
-      <c r="M63" s="39"/>
-      <c r="N63" s="39"/>
-      <c r="O63" s="39"/>
-      <c r="P63" s="39"/>
-      <c r="Q63" s="39"/>
-      <c r="R63" s="39"/>
-      <c r="S63" s="39"/>
-      <c r="T63" s="39"/>
-      <c r="U63" s="39"/>
-      <c r="V63" s="39"/>
-      <c r="W63" s="39"/>
-      <c r="X63" s="39"/>
-      <c r="Y63" s="39"/>
-      <c r="Z63" s="39"/>
-      <c r="AA63" s="39"/>
-      <c r="AB63" s="39"/>
-      <c r="AC63" s="39"/>
-      <c r="AD63" s="39"/>
-      <c r="AE63" s="39"/>
-      <c r="AF63" s="39"/>
-      <c r="AG63" s="39"/>
-      <c r="AH63" s="39"/>
-      <c r="AI63" s="39"/>
-      <c r="AJ63" s="39"/>
-      <c r="AK63" s="39"/>
-      <c r="AL63" s="39"/>
-      <c r="AM63" s="39"/>
-      <c r="AN63" s="39"/>
-      <c r="AO63" s="39"/>
-      <c r="AP63" s="39"/>
-      <c r="AQ63" s="39"/>
-      <c r="AR63" s="39"/>
-      <c r="AS63" s="39"/>
-      <c r="AT63" s="39"/>
-      <c r="AU63" s="39"/>
-      <c r="AV63" s="39"/>
-      <c r="AW63" s="39"/>
-      <c r="AX63" s="39"/>
-    </row>
-    <row r="64" spans="1:51" ht="14.25">
-      <c r="A64" s="29"/>
-      <c r="B64" s="29"/>
-      <c r="C64" s="29"/>
-    </row>
-    <row r="65" spans="1:3" ht="18.75" customHeight="1">
-      <c r="A65" s="29"/>
-      <c r="B65" s="29"/>
-      <c r="C65" s="29"/>
-    </row>
-    <row r="66" spans="1:3" ht="14.25">
-      <c r="A66" s="27"/>
-      <c r="B66" s="27"/>
-      <c r="C66" s="28"/>
-    </row>
-    <row r="67" spans="1:3" ht="14.25">
-      <c r="A67" s="27"/>
-      <c r="B67" s="28"/>
-      <c r="C67" s="28"/>
-    </row>
-    <row r="68" spans="1:3" ht="14.25">
-      <c r="A68" s="27"/>
-      <c r="B68" s="30"/>
-      <c r="C68" s="28"/>
-    </row>
-    <row r="69" spans="1:3" ht="14.25">
-      <c r="A69" s="27"/>
-      <c r="B69" s="31"/>
-      <c r="C69" s="28"/>
-    </row>
-    <row r="70" spans="1:3" ht="14.25">
-      <c r="A70" s="27"/>
-      <c r="B70" s="28"/>
-      <c r="C70" s="28"/>
-    </row>
-    <row r="71" spans="1:3" ht="14.25">
+      <c r="E67" s="39"/>
+      <c r="F67" s="39"/>
+      <c r="G67" s="39"/>
+      <c r="H67" s="39"/>
+      <c r="I67" s="39"/>
+      <c r="J67" s="40"/>
+      <c r="K67" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="L67" s="39"/>
+      <c r="M67" s="39"/>
+      <c r="N67" s="39"/>
+      <c r="O67" s="39"/>
+      <c r="P67" s="39"/>
+      <c r="Q67" s="39"/>
+      <c r="R67" s="40"/>
+      <c r="S67" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="T67" s="39"/>
+      <c r="U67" s="39"/>
+      <c r="V67" s="39"/>
+      <c r="W67" s="39"/>
+      <c r="X67" s="39"/>
+      <c r="Y67" s="39"/>
+      <c r="Z67" s="39"/>
+      <c r="AA67" s="39"/>
+      <c r="AB67" s="39"/>
+      <c r="AC67" s="39"/>
+      <c r="AD67" s="39"/>
+      <c r="AE67" s="39"/>
+      <c r="AF67" s="39"/>
+      <c r="AG67" s="39"/>
+      <c r="AH67" s="39"/>
+      <c r="AI67" s="39"/>
+      <c r="AJ67" s="39"/>
+      <c r="AK67" s="39"/>
+      <c r="AL67" s="39"/>
+      <c r="AM67" s="39"/>
+      <c r="AN67" s="39"/>
+      <c r="AO67" s="39"/>
+      <c r="AP67" s="39"/>
+      <c r="AQ67" s="39"/>
+      <c r="AR67" s="39"/>
+      <c r="AS67" s="39"/>
+      <c r="AT67" s="40"/>
+      <c r="AU67" s="37"/>
+      <c r="AV67" s="37"/>
+      <c r="AW67" s="37"/>
+      <c r="AX67" s="37"/>
+    </row>
+    <row r="68" spans="1:50">
+      <c r="A68" s="41"/>
+      <c r="B68" s="42"/>
+      <c r="C68" s="42"/>
+      <c r="D68" s="39"/>
+      <c r="E68" s="39"/>
+      <c r="F68" s="39"/>
+      <c r="G68" s="39"/>
+      <c r="H68" s="39"/>
+      <c r="I68" s="39"/>
+      <c r="J68" s="39"/>
+      <c r="K68" s="39"/>
+      <c r="L68" s="39"/>
+      <c r="M68" s="39"/>
+      <c r="N68" s="39"/>
+      <c r="O68" s="39"/>
+      <c r="P68" s="39"/>
+      <c r="Q68" s="39"/>
+      <c r="R68" s="39"/>
+      <c r="S68" s="39"/>
+      <c r="T68" s="39"/>
+      <c r="U68" s="39"/>
+      <c r="V68" s="39"/>
+      <c r="W68" s="39"/>
+      <c r="X68" s="39"/>
+      <c r="Y68" s="39"/>
+      <c r="Z68" s="39"/>
+      <c r="AA68" s="39"/>
+      <c r="AB68" s="39"/>
+      <c r="AC68" s="39"/>
+      <c r="AD68" s="39"/>
+      <c r="AE68" s="39"/>
+      <c r="AF68" s="39"/>
+      <c r="AG68" s="39"/>
+      <c r="AH68" s="39"/>
+      <c r="AI68" s="39"/>
+      <c r="AJ68" s="39"/>
+      <c r="AK68" s="39"/>
+      <c r="AL68" s="39"/>
+      <c r="AM68" s="39"/>
+      <c r="AN68" s="39"/>
+      <c r="AO68" s="39"/>
+      <c r="AP68" s="39"/>
+      <c r="AQ68" s="39"/>
+      <c r="AR68" s="39"/>
+      <c r="AS68" s="39"/>
+      <c r="AT68" s="39"/>
+      <c r="AU68" s="39"/>
+      <c r="AV68" s="39"/>
+      <c r="AW68" s="39"/>
+      <c r="AX68" s="39"/>
+    </row>
+    <row r="69" spans="1:50">
+      <c r="A69" s="29"/>
+      <c r="B69" s="29"/>
+      <c r="C69" s="29"/>
+    </row>
+    <row r="70" spans="1:50" ht="18.75" customHeight="1">
+      <c r="A70" s="29"/>
+      <c r="B70" s="29"/>
+      <c r="C70" s="29"/>
+    </row>
+    <row r="71" spans="1:50">
       <c r="A71" s="27"/>
-      <c r="B71" s="30"/>
+      <c r="B71" s="27"/>
       <c r="C71" s="28"/>
     </row>
-    <row r="72" spans="1:3" ht="14.25">
+    <row r="72" spans="1:50">
       <c r="A72" s="27"/>
-      <c r="B72" s="31"/>
+      <c r="B72" s="28"/>
       <c r="C72" s="28"/>
+    </row>
+    <row r="73" spans="1:50">
+      <c r="A73" s="27"/>
+      <c r="B73" s="30"/>
+      <c r="C73" s="28"/>
+    </row>
+    <row r="74" spans="1:50">
+      <c r="A74" s="27"/>
+      <c r="B74" s="31"/>
+      <c r="C74" s="28"/>
+    </row>
+    <row r="75" spans="1:50">
+      <c r="A75" s="27"/>
+      <c r="B75" s="28"/>
+      <c r="C75" s="28"/>
+    </row>
+    <row r="76" spans="1:50">
+      <c r="A76" s="27"/>
+      <c r="B76" s="30"/>
+      <c r="C76" s="28"/>
+    </row>
+    <row r="77" spans="1:50">
+      <c r="A77" s="27"/>
+      <c r="B77" s="31"/>
+      <c r="C77" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="K55:N55"/>
-    <mergeCell ref="K60:R60"/>
+    <mergeCell ref="K56:N56"/>
+    <mergeCell ref="K63:R63"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
